--- a/syab07205_hallid50.xlsx
+++ b/syab07205_hallid50.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87B42CA-C996-427D-8ECF-45764AB8992C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B346323-37CD-4BA3-BF13-C8DB954E9697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16470" yWindow="7860" windowWidth="16065" windowHeight="18390" xr2:uid="{81AE83EB-E836-BF4F-BBAA-1EB2591582DA}"/>
+    <workbookView xWindow="16335" yWindow="3510" windowWidth="16065" windowHeight="18390" xr2:uid="{81AE83EB-E836-BF4F-BBAA-1EB2591582DA}"/>
   </bookViews>
   <sheets>
     <sheet name="HallidayAll" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="1189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="1189">
   <si>
     <t>Charlabels</t>
   </si>
@@ -3679,15 +3679,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4021,7 +4013,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A664" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B669" sqref="B669"/>
+      <selection pane="bottomLeft" activeCell="C676" sqref="C676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4134,7 +4126,7 @@
         <v>758</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f t="shared" ref="C9:C72" si="0">IF(RIGHT(A9, 12) = "- continuous", "Transformational", "")</f>
+        <f t="shared" ref="C9:C62" si="0">IF(RIGHT(A9, 12) = "- continuous", "Transformational", "")</f>
         <v>Transformational</v>
       </c>
       <c r="D9" s="3"/>
@@ -6461,7 +6453,7 @@
         <v>874</v>
       </c>
       <c r="C213" s="3" t="str">
-        <f t="shared" ref="C201:C264" si="1">IF(RIGHT(A213, 12) = "- continuous", "Transformational", "")</f>
+        <f t="shared" ref="C213" si="1">IF(RIGHT(A213, 12) = "- continuous", "Transformational", "")</f>
         <v>Transformational</v>
       </c>
     </row>
@@ -10268,7 +10260,7 @@
         <v>1072</v>
       </c>
       <c r="C559" s="3" t="str">
-        <f t="shared" ref="C521:C584" si="2">IF(RIGHT(A559, 12) = "- continuous", "Transformational", "")</f>
+        <f t="shared" ref="C559:C584" si="2">IF(RIGHT(A559, 12) = "- continuous", "Transformational", "")</f>
         <v>Transformational</v>
       </c>
     </row>
@@ -10543,9 +10535,8 @@
       <c r="B584" t="s">
         <v>1084</v>
       </c>
-      <c r="C584" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="C584" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
@@ -10556,7 +10547,7 @@
         <v>1085</v>
       </c>
       <c r="C585" s="3" t="str">
-        <f t="shared" ref="C585:C648" si="3">IF(RIGHT(A585, 12) = "- continuous", "Transformational", "")</f>
+        <f t="shared" ref="C585:C647" si="3">IF(RIGHT(A585, 12) = "- continuous", "Transformational", "")</f>
         <v>Transformational</v>
       </c>
     </row>
@@ -10567,9 +10558,8 @@
       <c r="B586" t="s">
         <v>1086</v>
       </c>
-      <c r="C586" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C586" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -10579,9 +10569,8 @@
       <c r="B587" t="s">
         <v>1087</v>
       </c>
-      <c r="C587" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C587" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
@@ -10613,9 +10602,8 @@
       <c r="B590" t="s">
         <v>1088</v>
       </c>
-      <c r="C590" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C590" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -10625,9 +10613,8 @@
       <c r="B591" t="s">
         <v>1089</v>
       </c>
-      <c r="C591" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C591" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -10637,9 +10624,8 @@
       <c r="B592" t="s">
         <v>1090</v>
       </c>
-      <c r="C592" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C592" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
@@ -10649,9 +10635,8 @@
       <c r="B593" t="s">
         <v>1091</v>
       </c>
-      <c r="C593" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C593" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -10661,9 +10646,8 @@
       <c r="B594" t="s">
         <v>1092</v>
       </c>
-      <c r="C594" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C594" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -10673,9 +10657,8 @@
       <c r="B595" t="s">
         <v>1093</v>
       </c>
-      <c r="C595" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C595" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -10685,9 +10668,8 @@
       <c r="B596" t="s">
         <v>1094</v>
       </c>
-      <c r="C596" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C596" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -10697,9 +10679,8 @@
       <c r="B597" t="s">
         <v>1095</v>
       </c>
-      <c r="C597" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C597" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -10709,9 +10690,8 @@
       <c r="B598" t="s">
         <v>864</v>
       </c>
-      <c r="C598" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C598" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -10721,9 +10701,8 @@
       <c r="B599" t="s">
         <v>1096</v>
       </c>
-      <c r="C599" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C599" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -10733,9 +10712,8 @@
       <c r="B600" t="s">
         <v>1097</v>
       </c>
-      <c r="C600" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C600" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -10745,9 +10723,8 @@
       <c r="B601" t="s">
         <v>1098</v>
       </c>
-      <c r="C601" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C601" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -10768,9 +10745,8 @@
       <c r="B603" t="s">
         <v>1099</v>
       </c>
-      <c r="C603" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C603" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -10791,9 +10767,8 @@
       <c r="B605" t="s">
         <v>1100</v>
       </c>
-      <c r="C605" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C605" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -10803,9 +10778,8 @@
       <c r="B606" t="s">
         <v>1101</v>
       </c>
-      <c r="C606" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C606" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -10815,9 +10789,8 @@
       <c r="B607" t="s">
         <v>1102</v>
       </c>
-      <c r="C607" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C607" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -10827,9 +10800,8 @@
       <c r="B608" t="s">
         <v>1103</v>
       </c>
-      <c r="C608" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C608" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -10839,9 +10811,8 @@
       <c r="B609" t="s">
         <v>1104</v>
       </c>
-      <c r="C609" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C609" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -10851,9 +10822,8 @@
       <c r="B610" t="s">
         <v>1105</v>
       </c>
-      <c r="C610" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C610" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -10863,9 +10833,8 @@
       <c r="B611" t="s">
         <v>1106</v>
       </c>
-      <c r="C611" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C611" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
@@ -10875,9 +10844,8 @@
       <c r="B612" t="s">
         <v>1107</v>
       </c>
-      <c r="C612" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C612" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
@@ -10898,9 +10866,8 @@
       <c r="B614" t="s">
         <v>1108</v>
       </c>
-      <c r="C614" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C614" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -10932,9 +10899,8 @@
       <c r="B617" t="s">
         <v>1109</v>
       </c>
-      <c r="C617" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C617" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -10944,9 +10910,8 @@
       <c r="B618" t="s">
         <v>1110</v>
       </c>
-      <c r="C618" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C618" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
@@ -10956,9 +10921,8 @@
       <c r="B619" t="s">
         <v>862</v>
       </c>
-      <c r="C619" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C619" s="3" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -10968,9 +10932,8 @@
       <c r="B620" t="s">
         <v>1111</v>
       </c>
-      <c r="C620" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C620" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -10980,9 +10943,8 @@
       <c r="B621" t="s">
         <v>996</v>
       </c>
-      <c r="C621" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C621" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -10992,9 +10954,8 @@
       <c r="B622" t="s">
         <v>1112</v>
       </c>
-      <c r="C622" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C622" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -11015,9 +10976,8 @@
       <c r="B624" t="s">
         <v>1113</v>
       </c>
-      <c r="C624" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C624" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
@@ -11027,9 +10987,8 @@
       <c r="B625" t="s">
         <v>1114</v>
       </c>
-      <c r="C625" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C625" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
@@ -11039,9 +10998,8 @@
       <c r="B626" t="s">
         <v>1115</v>
       </c>
-      <c r="C626" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C626" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -11051,9 +11009,8 @@
       <c r="B627" t="s">
         <v>1116</v>
       </c>
-      <c r="C627" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C627" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
@@ -11063,9 +11020,8 @@
       <c r="B628" t="s">
         <v>1112</v>
       </c>
-      <c r="C628" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C628" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
@@ -11075,9 +11031,8 @@
       <c r="B629" t="s">
         <v>1005</v>
       </c>
-      <c r="C629" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C629" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
@@ -11087,9 +11042,8 @@
       <c r="B630" t="s">
         <v>1117</v>
       </c>
-      <c r="C630" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C630" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
@@ -11121,9 +11075,8 @@
       <c r="B633" t="s">
         <v>1118</v>
       </c>
-      <c r="C633" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C633" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
@@ -11133,9 +11086,8 @@
       <c r="B634" t="s">
         <v>1119</v>
       </c>
-      <c r="C634" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C634" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
@@ -11145,9 +11097,8 @@
       <c r="B635" t="s">
         <v>1120</v>
       </c>
-      <c r="C635" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C635" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
@@ -11157,9 +11108,8 @@
       <c r="B636" t="s">
         <v>1121</v>
       </c>
-      <c r="C636" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C636" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
@@ -11191,9 +11141,8 @@
       <c r="B639" t="s">
         <v>1123</v>
       </c>
-      <c r="C639" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C639" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
@@ -11203,9 +11152,8 @@
       <c r="B640" t="s">
         <v>1124</v>
       </c>
-      <c r="C640" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C640" s="3" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
@@ -11215,9 +11163,8 @@
       <c r="B641" t="s">
         <v>1125</v>
       </c>
-      <c r="C641" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C641" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
@@ -11227,9 +11174,8 @@
       <c r="B642" t="s">
         <v>1126</v>
       </c>
-      <c r="C642" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C642" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
@@ -11239,9 +11185,8 @@
       <c r="B643" t="s">
         <v>1127</v>
       </c>
-      <c r="C643" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C643" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
@@ -11251,9 +11196,8 @@
       <c r="B644" t="s">
         <v>1128</v>
       </c>
-      <c r="C644" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C644" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
@@ -11274,9 +11218,8 @@
       <c r="B646" t="s">
         <v>1129</v>
       </c>
-      <c r="C646" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C646" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
@@ -11286,9 +11229,8 @@
       <c r="B647" t="s">
         <v>1130</v>
       </c>
-      <c r="C647" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C647" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
@@ -11309,9 +11251,8 @@
       <c r="B649" t="s">
         <v>1131</v>
       </c>
-      <c r="C649" s="3" t="str">
-        <f t="shared" ref="C649:C712" si="4">IF(RIGHT(A649, 12) = "- continuous", "Transformational", "")</f>
-        <v/>
+      <c r="C649" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
@@ -11321,9 +11262,8 @@
       <c r="B650" t="s">
         <v>1132</v>
       </c>
-      <c r="C650" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="C650" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
@@ -11333,9 +11273,8 @@
       <c r="B651" t="s">
         <v>1133</v>
       </c>
-      <c r="C651" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="C651" s="3" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
@@ -11345,9 +11284,8 @@
       <c r="B652" t="s">
         <v>1134</v>
       </c>
-      <c r="C652" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="C652" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
@@ -11357,9 +11295,8 @@
       <c r="B653" t="s">
         <v>1135</v>
       </c>
-      <c r="C653" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="C653" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
@@ -11369,9 +11306,8 @@
       <c r="B654" t="s">
         <v>1136</v>
       </c>
-      <c r="C654" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="C654" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
@@ -11381,9 +11317,8 @@
       <c r="B655" t="s">
         <v>1137</v>
       </c>
-      <c r="C655" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="C655" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
@@ -11393,9 +11328,8 @@
       <c r="B656" t="s">
         <v>1138</v>
       </c>
-      <c r="C656" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="C656" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
@@ -11405,9 +11339,8 @@
       <c r="B657" t="s">
         <v>1139</v>
       </c>
-      <c r="C657" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="C657" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
@@ -11417,9 +11350,8 @@
       <c r="B658" t="s">
         <v>1140</v>
       </c>
-      <c r="C658" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="C658" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
@@ -11429,9 +11361,8 @@
       <c r="B659" t="s">
         <v>1141</v>
       </c>
-      <c r="C659" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="C659" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
@@ -11441,9 +11372,8 @@
       <c r="B660" t="s">
         <v>1142</v>
       </c>
-      <c r="C660" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="C660" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
@@ -11475,9 +11405,8 @@
       <c r="B663" t="s">
         <v>1054</v>
       </c>
-      <c r="C663" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="C663" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
